--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>1.506592400597333</v>
+        <v>4.889184493633778</v>
       </c>
       <c r="R2">
-        <v>13.559331605376</v>
+        <v>44.00266044270399</v>
       </c>
       <c r="S2">
-        <v>0.0001988092405944309</v>
+        <v>0.001132359764942605</v>
       </c>
       <c r="T2">
-        <v>0.0001988092405944309</v>
+        <v>0.001132359764942605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>23.06332518283688</v>
+        <v>30.26841382636622</v>
       </c>
       <c r="R3">
-        <v>207.569926645532</v>
+        <v>272.415724437296</v>
       </c>
       <c r="S3">
-        <v>0.003043425788796144</v>
+        <v>0.007010317162348604</v>
       </c>
       <c r="T3">
-        <v>0.003043425788796144</v>
+        <v>0.007010317162348603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>65.7601330894431</v>
+        <v>111.9457508863111</v>
       </c>
       <c r="R4">
-        <v>591.841197804988</v>
+        <v>1007.5117579768</v>
       </c>
       <c r="S4">
-        <v>0.008677676932206366</v>
+        <v>0.02592719999112428</v>
       </c>
       <c r="T4">
-        <v>0.008677676932206368</v>
+        <v>0.02592719999112428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>34.42485103066044</v>
+        <v>14.28299860386489</v>
       </c>
       <c r="R5">
-        <v>309.823659275944</v>
+        <v>128.546987434784</v>
       </c>
       <c r="S5">
-        <v>0.004542687516722184</v>
+        <v>0.003308014447564324</v>
       </c>
       <c r="T5">
-        <v>0.004542687516722185</v>
+        <v>0.003308014447564323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>104.9874379933622</v>
+        <v>156.8870902377849</v>
       </c>
       <c r="R6">
-        <v>944.88694194026</v>
+        <v>1411.983812140064</v>
       </c>
       <c r="S6">
-        <v>0.01385409405433064</v>
+        <v>0.03633584064080817</v>
       </c>
       <c r="T6">
-        <v>0.01385409405433064</v>
+        <v>0.03633584064080816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H7">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I7">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J7">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>64.94545083637021</v>
+        <v>51.37191611872888</v>
       </c>
       <c r="R7">
-        <v>584.5090575273321</v>
+        <v>462.34724506856</v>
       </c>
       <c r="S7">
-        <v>0.008570171836604554</v>
+        <v>0.01189799463215191</v>
       </c>
       <c r="T7">
-        <v>0.008570171836604554</v>
+        <v>0.01189799463215191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>4.436431501088001</v>
+        <v>10.97000165322567</v>
       </c>
       <c r="R8">
-        <v>39.92788350979201</v>
+        <v>98.730014879031</v>
       </c>
       <c r="S8">
-        <v>0.000585429461432847</v>
+        <v>0.002540707659864608</v>
       </c>
       <c r="T8">
-        <v>0.0005854294614328468</v>
+        <v>0.002540707659864608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
         <v>67.91409695177433</v>
@@ -1013,10 +1013,10 @@
         <v>611.2268725659691</v>
       </c>
       <c r="S9">
-        <v>0.008961913013291162</v>
+        <v>0.01572924706783643</v>
       </c>
       <c r="T9">
-        <v>0.008961913013291162</v>
+        <v>0.01572924706783643</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>193.6425046602357</v>
+        <v>251.1758502657167</v>
       </c>
       <c r="R10">
-        <v>1742.782541942121</v>
+        <v>2260.582652391451</v>
       </c>
       <c r="S10">
-        <v>0.02555297589649421</v>
+        <v>0.05817359257694037</v>
       </c>
       <c r="T10">
-        <v>0.02555297589649421</v>
+        <v>0.05817359257694037</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>101.3701472754887</v>
+        <v>32.04716829594734</v>
       </c>
       <c r="R11">
-        <v>912.3313254793981</v>
+        <v>288.4245146635261</v>
       </c>
       <c r="S11">
-        <v>0.01337675803408748</v>
+        <v>0.007422285660507789</v>
       </c>
       <c r="T11">
-        <v>0.01337675803408748</v>
+        <v>0.007422285660507789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>309.1543385905883</v>
+        <v>352.0120055848274</v>
       </c>
       <c r="R12">
-        <v>2782.389047315296</v>
+        <v>3168.108050263447</v>
       </c>
       <c r="S12">
-        <v>0.04079586440055035</v>
+        <v>0.0815277542543207</v>
       </c>
       <c r="T12">
-        <v>0.04079586440055035</v>
+        <v>0.0815277542543207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>191.2435266689243</v>
+        <v>115.2646224509683</v>
       </c>
       <c r="R13">
-        <v>1721.191740020319</v>
+        <v>1037.381602058715</v>
       </c>
       <c r="S13">
-        <v>0.02523640786358348</v>
+        <v>0.02669586736903228</v>
       </c>
       <c r="T13">
-        <v>0.02523640786358347</v>
+        <v>0.02669586736903228</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>2.034731732981334</v>
+        <v>8.252293830728888</v>
       </c>
       <c r="R14">
-        <v>18.312585596832</v>
+        <v>74.27064447655999</v>
       </c>
       <c r="S14">
-        <v>0.0002685022641074149</v>
+        <v>0.001911272833857888</v>
       </c>
       <c r="T14">
-        <v>0.0002685022641074149</v>
+        <v>0.001911272833857888</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>31.14822535874989</v>
+        <v>51.0890609692711</v>
       </c>
       <c r="R15">
-        <v>280.334028228749</v>
+        <v>459.80154872344</v>
       </c>
       <c r="S15">
-        <v>0.004110305499338799</v>
+        <v>0.01183248395425259</v>
       </c>
       <c r="T15">
-        <v>0.004110305499338799</v>
+        <v>0.01183248395425259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>88.81249467946012</v>
+        <v>188.9495539835556</v>
       </c>
       <c r="R16">
-        <v>799.3124521151411</v>
+        <v>1700.545985852</v>
       </c>
       <c r="S16">
-        <v>0.01171965597033402</v>
+        <v>0.04376166880456761</v>
       </c>
       <c r="T16">
-        <v>0.01171965597033402</v>
+        <v>0.04376166880456761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H17">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>46.49255947890645</v>
+        <v>24.10780395308445</v>
       </c>
       <c r="R17">
-        <v>418.4330353101581</v>
+        <v>216.97023557776</v>
       </c>
       <c r="S17">
-        <v>0.006135136775964144</v>
+        <v>0.005583488872866801</v>
       </c>
       <c r="T17">
-        <v>0.006135136775964144</v>
+        <v>0.005583488872866801</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H18">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>141.7910189675773</v>
+        <v>264.8045637418845</v>
       </c>
       <c r="R18">
-        <v>1276.119170708195</v>
+        <v>2383.24107367696</v>
       </c>
       <c r="S18">
-        <v>0.01871067768088972</v>
+        <v>0.06133007129203861</v>
       </c>
       <c r="T18">
-        <v>0.01871067768088972</v>
+        <v>0.06133007129203861</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H19">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>87.71222374223323</v>
+        <v>86.70896895204444</v>
       </c>
       <c r="R19">
-        <v>789.4100136800992</v>
+        <v>780.3807205684</v>
       </c>
       <c r="S19">
-        <v>0.01157446472325786</v>
+        <v>0.02008223412898421</v>
       </c>
       <c r="T19">
-        <v>0.01157446472325786</v>
+        <v>0.02008223412898421</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H20">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N20">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O20">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P20">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q20">
-        <v>22.31164622904534</v>
+        <v>7.056387886236666</v>
       </c>
       <c r="R20">
-        <v>200.804816061408</v>
+        <v>63.50749097612999</v>
       </c>
       <c r="S20">
-        <v>0.002944234579604552</v>
+        <v>0.001634294991037274</v>
       </c>
       <c r="T20">
-        <v>0.002944234579604551</v>
+        <v>0.001634294991037274</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H21">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q21">
-        <v>341.5527332680479</v>
+        <v>43.68533626376333</v>
       </c>
       <c r="R21">
-        <v>3073.974599412431</v>
+        <v>393.16802637387</v>
       </c>
       <c r="S21">
-        <v>0.04507114166847671</v>
+        <v>0.01011774400566915</v>
       </c>
       <c r="T21">
-        <v>0.04507114166847671</v>
+        <v>0.01011774400566915</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H22">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N22">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q22">
-        <v>973.864480455942</v>
+        <v>161.5673618981667</v>
       </c>
       <c r="R22">
-        <v>8764.780324103478</v>
+        <v>1454.1062570835</v>
       </c>
       <c r="S22">
-        <v>0.1285107091503795</v>
+        <v>0.03741981514087424</v>
       </c>
       <c r="T22">
-        <v>0.1285107091503795</v>
+        <v>0.03741981514087424</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H23">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N23">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q23">
-        <v>509.8094862148224</v>
+        <v>20.61414914055333</v>
       </c>
       <c r="R23">
-        <v>4588.285375933402</v>
+        <v>185.52734226498</v>
       </c>
       <c r="S23">
-        <v>0.06727422543882521</v>
+        <v>0.004774340814032133</v>
       </c>
       <c r="T23">
-        <v>0.06727422543882521</v>
+        <v>0.004774340814032133</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H24">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N24">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q24">
-        <v>1554.795161632967</v>
+        <v>226.4296151029533</v>
       </c>
       <c r="R24">
-        <v>13993.15645469671</v>
+        <v>2037.86653592658</v>
       </c>
       <c r="S24">
-        <v>0.2051700547816322</v>
+        <v>0.05244223981890716</v>
       </c>
       <c r="T24">
-        <v>0.2051700547816322</v>
+        <v>0.05244223981890716</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H25">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N25">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O25">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P25">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q25">
-        <v>961.7995701242312</v>
+        <v>74.14327830438333</v>
       </c>
       <c r="R25">
-        <v>8656.196131118082</v>
+        <v>667.28950473945</v>
       </c>
       <c r="S25">
-        <v>0.1269186291293092</v>
+        <v>0.01717195685745672</v>
       </c>
       <c r="T25">
-        <v>0.1269186291293092</v>
+        <v>0.01717195685745672</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H26">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N26">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O26">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P26">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q26">
-        <v>5.645691793749334</v>
+        <v>12.89067730951833</v>
       </c>
       <c r="R26">
-        <v>50.81122614374401</v>
+        <v>116.016095785665</v>
       </c>
       <c r="S26">
-        <v>0.0007450028937491657</v>
+        <v>0.00298554581999591</v>
       </c>
       <c r="T26">
-        <v>0.0007450028937491656</v>
+        <v>0.00298554581999591</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H27">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q27">
-        <v>86.42578156486755</v>
+        <v>79.80479276548165</v>
       </c>
       <c r="R27">
-        <v>777.8320340838079</v>
+        <v>718.2431348893349</v>
       </c>
       <c r="S27">
-        <v>0.01140470640491686</v>
+        <v>0.01848319213457422</v>
       </c>
       <c r="T27">
-        <v>0.01140470640491686</v>
+        <v>0.01848319213457422</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H28">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N28">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q28">
-        <v>246.4246093314524</v>
+        <v>295.1528118290833</v>
       </c>
       <c r="R28">
-        <v>2217.821483983072</v>
+        <v>2656.37530646175</v>
       </c>
       <c r="S28">
-        <v>0.03251807816469885</v>
+        <v>0.06835887847147464</v>
       </c>
       <c r="T28">
-        <v>0.03251807816469885</v>
+        <v>0.06835887847147464</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H29">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N29">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q29">
-        <v>129.0011146264818</v>
+        <v>37.65812606467667</v>
       </c>
       <c r="R29">
-        <v>1161.010031638336</v>
+        <v>338.92313458209</v>
       </c>
       <c r="S29">
-        <v>0.01702292778362456</v>
+        <v>0.008721811752921421</v>
       </c>
       <c r="T29">
-        <v>0.01702292778362456</v>
+        <v>0.008721811752921421</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H30">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N30">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q30">
-        <v>393.4220807770489</v>
+        <v>413.6438002938767</v>
       </c>
       <c r="R30">
-        <v>3540.79872699344</v>
+        <v>3722.79420264489</v>
       </c>
       <c r="S30">
-        <v>0.05191579692115459</v>
+        <v>0.09580198846671396</v>
       </c>
       <c r="T30">
-        <v>0.05191579692115459</v>
+        <v>0.09580198846671396</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H31">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N31">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O31">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P31">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q31">
-        <v>243.3717299270009</v>
+        <v>135.4456544481916</v>
       </c>
       <c r="R31">
-        <v>2190.345569343008</v>
+        <v>1219.010890033725</v>
       </c>
       <c r="S31">
-        <v>0.03211522160191203</v>
+        <v>0.03136989607022588</v>
       </c>
       <c r="T31">
-        <v>0.03211522160191203</v>
+        <v>0.03136989607022588</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H32">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N32">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O32">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P32">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q32">
-        <v>2.807869713109334</v>
+        <v>13.05027257371011</v>
       </c>
       <c r="R32">
-        <v>25.270827417984</v>
+        <v>117.452453163391</v>
       </c>
       <c r="S32">
-        <v>0.0003705251965495393</v>
+        <v>0.00302250888737074</v>
       </c>
       <c r="T32">
-        <v>0.0003705251965495393</v>
+        <v>0.00302250888737074</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H33">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>55.904827</v>
       </c>
       <c r="O33">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P33">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q33">
-        <v>42.98363129855422</v>
+        <v>80.79282983128989</v>
       </c>
       <c r="R33">
-        <v>386.852681686988</v>
+        <v>727.135468481609</v>
       </c>
       <c r="S33">
-        <v>0.005672100226357468</v>
+        <v>0.01871202649765666</v>
       </c>
       <c r="T33">
-        <v>0.005672100226357468</v>
+        <v>0.01871202649765666</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H34">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N34">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O34">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P34">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q34">
-        <v>122.5586203399658</v>
+        <v>298.8070023614945</v>
       </c>
       <c r="R34">
-        <v>1103.027583059692</v>
+        <v>2689.26302125345</v>
       </c>
       <c r="S34">
-        <v>0.01617277919922417</v>
+        <v>0.06920520741196043</v>
       </c>
       <c r="T34">
-        <v>0.01617277919922417</v>
+        <v>0.06920520741196041</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H35">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N35">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O35">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P35">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q35">
-        <v>64.15835932065511</v>
+        <v>38.12435902000956</v>
       </c>
       <c r="R35">
-        <v>577.425233885896</v>
+        <v>343.119231180086</v>
       </c>
       <c r="S35">
-        <v>0.008466307602020866</v>
+        <v>0.008829793654687798</v>
       </c>
       <c r="T35">
-        <v>0.008466307602020866</v>
+        <v>0.008829793654687796</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H36">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N36">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O36">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P36">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q36">
-        <v>195.6674195898156</v>
+        <v>418.7649890416897</v>
       </c>
       <c r="R36">
-        <v>1761.00677630834</v>
+        <v>3768.884901375206</v>
       </c>
       <c r="S36">
-        <v>0.0258201827397376</v>
+        <v>0.0969880815859757</v>
       </c>
       <c r="T36">
-        <v>0.0258201827397376</v>
+        <v>0.09698808158597569</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H37">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N37">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O37">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P37">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q37">
-        <v>121.0402789336875</v>
+        <v>137.1225628437906</v>
       </c>
       <c r="R37">
-        <v>1089.362510403188</v>
+        <v>1234.103065594115</v>
       </c>
       <c r="S37">
-        <v>0.01597241956524117</v>
+        <v>0.03175827650445642</v>
       </c>
       <c r="T37">
-        <v>0.01597241956524117</v>
+        <v>0.03175827650445641</v>
       </c>
     </row>
   </sheetData>
